--- a/biology/Microbiologie/Grossglockneriidae/Grossglockneriidae.xlsx
+++ b/biology/Microbiologie/Grossglockneriidae/Grossglockneriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grossglockneriida
 Les Grossglockneriidae sont une famille de Ciliés de la classe des Colpodea et de l’ordre des Colpodida, ou uniques représentants de l’ordre des Grossglockneriida selon les classifications.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Grossglockneria, nommé d'après la région du Großglockner, où W. Foissner étudia la faune de ciliés[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Grossglockneria, nommé d'après la région du Großglockner, où W. Foissner étudia la faune de ciliés.
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (23 novembre 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (23 novembre 2022) :
 Fungiphrya Foissner, 1999
 Grossglockneria Foissner, 1980 - genre type
 Mykophagophrys Foissner, 1995
 Nivaliella Foissner, 1980
-Pseudoglaucoma Wenzel, 1953[note 1],[3]
+Pseudoglaucoma Wenzel, 1953[note 1],
 Pseudoplatyophrya Foissner, 1980</t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Grossglockneriidae Foissner, 1980[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Grossglockneriidae Foissner, 1980.
 </t>
         </is>
       </c>
